--- a/data/2024 Naeem-Esfe, °C, food/3_days.xlsx
+++ b/data/2024 Naeem-Esfe, °C, food/3_days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>concentration</t>
   </si>
@@ -40,7 +40,10 @@
     <t>days</t>
   </si>
   <si>
-    <t/>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>We overrid the days to 2 on purpose, such that in our analysis it will be grouped to with the other experiments of 2 days.</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -117,9 +120,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -439,14 +439,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -514,9 +514,11 @@
         <v>93.33333333</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
